--- a/medicine/Enfance/Frances_Hardinge/Frances_Hardinge.xlsx
+++ b/medicine/Enfance/Frances_Hardinge/Frances_Hardinge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frances Hardinge, née le 6 février 1973 à Brighton en Angleterre, est une écrivaine britannique qui écrit notamment de la littérature jeunesse. Son premier roman, Le Voyage de Mosca, a remporté en 2006 le prix Branford Boase[1] et a été répertorié dans la sélection des meilleurs livres du School Library Journal, tandis que son roman L'Île aux mensonges a remporté en 2015 le Costa Book Award, le premier livre pour enfants à recevoir cette distinction depuis Le Miroir d'ambre de Philip Pullman en 2001[2]. Elle a également été nommée et lauréate de plusieurs autres prix pour ses romans ainsi que certaines de ses nouvelles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frances Hardinge, née le 6 février 1973 à Brighton en Angleterre, est une écrivaine britannique qui écrit notamment de la littérature jeunesse. Son premier roman, Le Voyage de Mosca, a remporté en 2006 le prix Branford Boase et a été répertorié dans la sélection des meilleurs livres du School Library Journal, tandis que son roman L'Île aux mensonges a remporté en 2015 le Costa Book Award, le premier livre pour enfants à recevoir cette distinction depuis Le Miroir d'ambre de Philip Pullman en 2001. Elle a également été nommée et lauréate de plusieurs autres prix pour ses romans ainsi que certaines de ses nouvelles.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frances Hardinge est née à Brighton, en Angleterre en 1973. Elle a étudié l'anglais au Somerville College de l'Université d'Oxford et a été membre fondateur d'un atelier d'écriture au sein de l'établissement. Elle vit à présent dans l'ouest londonien[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frances Hardinge est née à Brighton, en Angleterre en 1973. Elle a étudié l'anglais au Somerville College de l'Université d'Oxford et a été membre fondateur d'un atelier d'écriture au sein de l'établissement. Elle vit à présent dans l'ouest londonien.
 Sa carrière d'écrivaine a commencé après qu'elle a remporté un concours de nouvelles dans un magazine.  Peu de temps après sa victoire, elle écrit Le Voyage de Mosca pendant son temps libre et le présente à la maison d'édition Macmillan sous la pression d’un ami.
 Les six premiers romans de Hardinge ont tous été publiés au Royaume-Uni par Macmillan Children's Books.
-En France, certains de ses romans sont publiés et traduits par Gallimard Jeunesse[4] ainsi que L'Atalante[5].
+En France, certains de ses romans sont publiés et traduits par Gallimard Jeunesse ainsi que L'Atalante.
 </t>
         </is>
       </c>
@@ -545,16 +559,18 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2006 : prix Branford Boase, lauréate avec Le Voyage de Mosca[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2006 : prix Branford Boase, lauréate avec Le Voyage de Mosca
 2011 : Guardian Award, sélectionnée pour Twilight Robbery
 2012 : Kitschies, sélectionnée pour A Face Like Glass
 2015 : médaille Carnegie, sélectionnée pour Le Chant du coucou
-2015 : Costa Book Award, lauréate avec L'Île aux mensonges[7],[8]
-2015 : prix British Fantasy, lauréate pour le meilleur roman de fantasy pour Le Chant du coucou[9]
+2015 : Costa Book Award, lauréate avec L'Île aux mensonges,
+2015 : prix British Fantasy, lauréate pour le meilleur roman de fantasy pour Le Chant du coucou
 2016 : médaille Carnegie, sélectionnée pour L'Île aux mensonges
-2016 : Boston Globe-Horn Book Award, lauréate avec L'Île aux mensonges[10]</t>
+2016 : Boston Globe-Horn Book Award, lauréate avec L'Île aux mensonges</t>
         </is>
       </c>
     </row>
@@ -584,11 +600,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Série Fly by Night
-Le Voyage de Mosca, Gallimard Jeunesse, 2006 ((en) Fly by Night, 2005), trad. Philippe Giraudon, 425 p.  (ISBN 2-07-057485-7)
-(en) Twilight Robbery, 2011
-Romans indépendants
-(en) Verdigris Deep, 2007
+          <t>Série Fly by Night</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Voyage de Mosca, Gallimard Jeunesse, 2006 ((en) Fly by Night, 2005), trad. Philippe Giraudon, 425 p.  (ISBN 2-07-057485-7)
+(en) Twilight Robbery, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frances_Hardinge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frances_Hardinge</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Verdigris Deep, 2007
 (en) Gullstruck Island, 2009
 (en) A Face Like Glass, 2012
 Le Chant du coucou, L'Atalante, coll. « La Dentelle du cygne », 2018 ((en) Cuckoo Song, 2014), trad. Patrick Couton, 425 p.  (ISBN 978-2-84172-857-2)
